--- a/Course2/sources/Transformers.xlsx
+++ b/Course2/sources/Transformers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\Course2\Course2\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4378736-5928-4323-9FAE-70ACBE2EDF78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7E942F-E374-474A-A058-C18804A300E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,19 +129,19 @@
     <t>3,7/4,2</t>
   </si>
   <si>
-    <t>0,4,5/2,1</t>
-  </si>
-  <si>
-    <t>5,5/</t>
-  </si>
-  <si>
-    <t>6,5/</t>
-  </si>
-  <si>
-    <t>7,6/</t>
-  </si>
-  <si>
     <t>10,5/11</t>
+  </si>
+  <si>
+    <t>5,5/5,5</t>
+  </si>
+  <si>
+    <t>6,5/6,5</t>
+  </si>
+  <si>
+    <t>7,6/7,6</t>
+  </si>
+  <si>
+    <t>4,5/4,5</t>
   </si>
 </sst>
 </file>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A142"/>
+  <dimension ref="A1:A150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -605,283 +605,283 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>2.8</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
         <v>0.24</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>0.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>0.26500000000000001</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
         <v>1.28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>0.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
         <v>2.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" s="1">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
-        <v>100</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
-        <v>0.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
         <v>2.6</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" s="1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="1">
-        <v>2.4</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" s="1">
-        <v>2.4</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>10</v>
+      <c r="A64" s="1">
+        <v>2.4</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
         <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" s="1">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
-        <v>0.4</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
-        <v>2.2999999999999998</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" s="1">
-        <v>0.9</v>
+      <c r="A75" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
-        <v>19</v>
+      <c r="A76" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>20</v>
+      <c r="A78" s="1">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.45">
@@ -891,7 +891,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
@@ -901,7 +901,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
@@ -911,7 +911,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
-        <v>1.2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.45">
@@ -920,277 +920,317 @@
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
-        <v>10</v>
+      <c r="A88" s="1">
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" s="1">
-        <v>0.4</v>
+      <c r="A89" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
-        <v>21</v>
+      <c r="A90" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" s="1">
-        <v>2</v>
+      <c r="A91" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
-        <v>23</v>
+      <c r="A93" s="1">
+        <v>1.2</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
         <v>630</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" s="1">
-        <v>0.4</v>
+      <c r="A96" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
-        <v>22</v>
+      <c r="A97" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" s="1">
-        <v>2</v>
+      <c r="A98" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="1">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" s="1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
         <v>630</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A105" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
-        <v>7.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A108" s="1">
-        <v>1000</v>
+      <c r="A108" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
-        <v>16</v>
+      <c r="A109" s="1">
+        <v>630</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A111" s="1">
-        <v>6.5</v>
+      <c r="A111" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A112" s="1">
-        <v>1.5</v>
+      <c r="A112" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
-        <v>2.35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
-        <v>11.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
-        <v>1600</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
-        <v>16</v>
+      <c r="A116" s="1">
+        <v>1000</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A118" s="1">
-        <v>6.5</v>
+      <c r="A118" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
-        <v>1.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
-        <v>16.5</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
-        <v>2500</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
-        <v>16</v>
+      <c r="A123" s="1">
+        <v>1600</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A125" s="1">
-        <v>6.5</v>
+      <c r="A125" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
-        <v>1.1000000000000001</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
-        <v>4.3499999999999996</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
-        <v>23.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
-        <v>4000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
-        <v>16</v>
+      <c r="A130" s="1">
+        <v>2500</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A132" s="1">
-        <v>7.5</v>
+      <c r="A132" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
-        <v>1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
-        <v>5.7</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
-        <v>33.5</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
-        <v>6300</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
-        <v>16</v>
+      <c r="A137" s="1">
+        <v>4000</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A139" s="1">
-        <v>7.5</v>
+      <c r="A139" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
-        <v>0.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" s="1">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" s="1">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" s="1">
         <v>46.5</v>
       </c>
     </row>
